--- a/medicine/Enfance/Claude_Merle/Claude_Merle.xlsx
+++ b/medicine/Enfance/Claude_Merle/Claude_Merle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Merle est un écrivain, également auteur de littérature jeunesse sous les pseudonymes Renaud Paris, Patrick Bruno[1] et David Hudson[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Merle est un écrivain, également auteur de littérature jeunesse sous les pseudonymes Renaud Paris, Patrick Bruno et David Hudson.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Né le 25 septembre 1938, ancien professeur d'histoire au lycée Longchamp[3], Claude Merle est l'auteur, sous divers pseudonymes, de plus de 120 ouvrages, notamment pour la jeunesse dans des genres différents : aventure, fantastique et historique[4]. Passionné de sport, il rend hommage au football dans les romans qui composent la série Fooot. Historien de formation, il a écrit des romans et essais aux éditions Pygmalion, Autrement Jeunesse, Bayard, Hachette, Nouveau Monde, MA Éditions, les Éditions du Patrimoine, Bulles de Savon et plus récemment, aux Éditions Auzou. 
-Sous le nom de Claude Merle (ordre chronologique)
-L'Âge de Sang, Trévise, 1981
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 25 septembre 1938, ancien professeur d'histoire au lycée Longchamp, Claude Merle est l'auteur, sous divers pseudonymes, de plus de 120 ouvrages, notamment pour la jeunesse dans des genres différents : aventure, fantastique et historique. Passionné de sport, il rend hommage au football dans les romans qui composent la série Fooot. Historien de formation, il a écrit des romans et essais aux éditions Pygmalion, Autrement Jeunesse, Bayard, Hachette, Nouveau Monde, MA Éditions, les Éditions du Patrimoine, Bulles de Savon et plus récemment, aux Éditions Auzou. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Claude_Merle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Merle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous le nom de Claude Merle (ordre chronologique)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Âge de Sang, Trévise, 1981
 Les Chiens, SDE, 1999
 Les Diables rouges, Bayard, 1999
 Les démons de la nuit, Bayard, 1999
@@ -578,15 +627,84 @@
 Faucon Rouge, Chapitre.com, 2019
 Légendaire, Chapitre.com, 2019
 Les Secrets de l'Olympe 5- Les Amazones, guerrières d'Arès, Éditions Auzou, 2020
-Les Secrets de l'Olympe 6 - Le labyrinthe du Minotaure, Éditions Auzou, 2021
-Sous le nom de Patrick Bruno
-Fooot !  (ISSN 1635-5261) est une collection de romans de 
+Les Secrets de l'Olympe 6 - Le labyrinthe du Minotaure, Éditions Auzou, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude_Merle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Merle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le nom de Patrick Bruno</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fooot !  (ISSN 1635-5261) est une collection de romans de 
 littérature jeunesse écrite à partir de 2002 sur le sujet du football. Cette collection, éditée en livres de poche par Bayard jeunesse, est composée de 23 volumes de 150 pages environ.
 Ces livres parlent d'un club de football composé d'adolescents, entrainé par Luc Giovanelli, à Miraval en Provence. En plus des résumés des matchs et de la vie de groupe de l'équipe, l'écrivain entraine aussi le lecteur dans la vie privée des personnages comme dans Hors-jeu où la vie de Phil est mise à nu. Il se fait raquetter par des malfrats...
 La série commence au numéro 1301 de la collection principale, « Bayard 
 poche ».
-Sous le nom de Renaud Paris
-Série Cœur Grenadine, Bayard, 9 volumes.</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Merle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Merle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le nom de Renaud Paris</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Cœur Grenadine, Bayard, 9 volumes.</t>
         </is>
       </c>
     </row>
